--- a/pilot-study/report/correlation/effective-participants/SimpleCorrPairAnalysis-strong.xlsx
+++ b/pilot-study/report/correlation/effective-participants/SimpleCorrPairAnalysis-strong.xlsx
@@ -12,16 +12,18 @@
     <sheet name="strong_spearman_16" r:id="rId6" sheetId="4"/>
     <sheet name="strong_spearman_18" r:id="rId7" sheetId="5"/>
     <sheet name="strong_spearman_24" r:id="rId8" sheetId="6"/>
-    <sheet name="strong_spearman_34" r:id="rId9" sheetId="7"/>
-    <sheet name="strong_spearman_43" r:id="rId10" sheetId="8"/>
+    <sheet name="strong_spearman_27" r:id="rId9" sheetId="7"/>
+    <sheet name="strong_spearman_34" r:id="rId10" sheetId="8"/>
+    <sheet name="strong_spearman_36" r:id="rId11" sheetId="9"/>
+    <sheet name="strong_spearman_43" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="69">
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in Master using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -30,7 +32,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>Gains in Skills/Knowledge</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Intrinsic Motivation</t>
@@ -60,10 +62,10 @@
     <t>GiS/K-IntrM</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in Master</t>
   </si>
   <si>
     <t>UserID</t>
@@ -93,6 +95,9 @@
     <t>Grupo Hélio</t>
   </si>
   <si>
+    <t>Grupo Hades</t>
+  </si>
+  <si>
     <t>Grupo Apolo</t>
   </si>
   <si>
@@ -114,25 +119,25 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in non-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in non-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Interest/Enjoyment in non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Interest/Enjoyment</t>
@@ -141,22 +146,22 @@
     <t>GiS/K-Int/E</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Interest/Enjoyment in non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Interest/Enjoyment in non-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in non-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Interest/Enjoyment in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Interest/Enjoyment in ont-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Interest/Enjoyment in ont-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Interest/Enjoyment in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Perceived Choice in non-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Perceived Choice in non-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t>Perceived Choice</t>
@@ -165,10 +170,10 @@
     <t>GiS/K-PrcvC</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Perceived Choice in non-gamified.Apprentice</t>
+    <t>Data source for Gains in Skill/Knowledge - Perceived Choice in non-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Perceived Choice in non-gamified.Apprentice</t>
+    <t>Data full source for Gains in Skill/Knowledge - Perceived Choice in non-gamified.Apprentice</t>
   </si>
   <si>
     <t>GroupA</t>
@@ -177,7 +182,16 @@
     <t>Apprentice</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Perceived Choice in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Perceived Choice in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Perceived Choice in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Pressure/Tension</t>
@@ -186,13 +200,22 @@
     <t>GiS/K-Prs/T</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in non-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in non-gamified.Master</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Effort/Importance in non-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Effort/Importance in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Effort/Importance</t>
@@ -201,10 +224,10 @@
     <t>GiS/K-Eff/I</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Effort/Importance in non-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Effort/Importance in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for Gains in Skills/Knowledge - Effort/Importance in non-gamified.Master</t>
+    <t>Data full source for Gains in Skill/Knowledge - Effort/Importance in non-gamified.Master</t>
   </si>
 </sst>
 </file>
@@ -212,13 +235,949 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="585">
+  <fonts count="731">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -4007,7 +4966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1113">
+  <cellXfs count="1391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -5313,6 +6272,332 @@
     <xf numFmtId="0" fontId="582" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="593" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="630" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="657" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="673" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="689" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="705" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="708" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="711" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="726" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -5369,10 +6654,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="31">
-        <v>1.0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.872081599272381</v>
+        <v>-0.8696565534786727</v>
       </c>
     </row>
     <row r="7">
@@ -5380,10 +6665,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.872081599272381</v>
+        <v>-0.8696565534786727</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -5414,11 +6699,11 @@
       <c r="A12" t="s" s="46">
         <v>3</v>
       </c>
-      <c r="B12" t="e" s="51">
-        <v>#DIV/0!</v>
+      <c r="B12" t="n" s="51">
+        <v>1.3421772799999999E8</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-3.086660416610893</v>
+        <v>-3.5233213170882216</v>
       </c>
     </row>
     <row r="13">
@@ -5426,10 +6711,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-3.086660416610893</v>
-      </c>
-      <c r="C13" t="n" s="52">
-        <v>8.21912370089156E7</v>
+        <v>-3.5233213170882216</v>
+      </c>
+      <c r="C13" t="e" s="52">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -5461,10 +6746,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="71">
-        <v>-0.0</v>
+        <v>1.8488927466117675E-32</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.0538542177275421</v>
+        <v>0.0243768916856908</v>
       </c>
     </row>
     <row r="19">
@@ -5472,10 +6757,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.0538542177275421</v>
+        <v>0.0243768916856908</v>
       </c>
       <c r="C19" t="n" s="72">
-        <v>3.971862410081728E-24</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="20">
@@ -5513,16 +6798,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.9914885160185373</v>
+        <v>-0.9856008638855045</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.872081599272381</v>
+        <v>-0.8696565534786727</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.044168229516178936</v>
+        <v>-0.1974549415680596</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.0538542177275421</v>
+        <v>0.0243768916856908</v>
       </c>
     </row>
     <row r="25">
@@ -5550,7 +6835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="B29" t="n" s="114">
         <v>-0.43947638936464706</v>
@@ -5558,7 +6843,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>1.3875250646034103</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B30" t="n" s="114">
         <v>1.2745279552051365</v>
@@ -5566,31 +6851,34 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>6.6027005735701705</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>-0.19461194636708312</v>
+        <v>0.13052634609611735</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>1.3875250646034103</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.016003757563636895</v>
+        <v>-0.19461194636708312</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>-2.595256584071593</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B33" t="n" s="114">
+        <v>-0.016003757563636895</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="113">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B34" t="n" s="114">
         <v>1.3837694218399965</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -5599,146 +6887,496 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="118">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="118">
         <v>14</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="132">
+    <row r="38">
+      <c r="A38" t="s" s="132">
         <v>15</v>
       </c>
-      <c r="B37" t="s" s="132">
+      <c r="B38" t="s" s="132">
         <v>16</v>
       </c>
-      <c r="C37" t="s" s="132">
+      <c r="C38" t="s" s="132">
         <v>17</v>
       </c>
-      <c r="D37" t="s" s="132">
+      <c r="D38" t="s" s="132">
         <v>18</v>
       </c>
-      <c r="E37" t="s" s="132">
+      <c r="E38" t="s" s="132">
         <v>19</v>
       </c>
-      <c r="F37" t="s" s="132">
+      <c r="F38" t="s" s="132">
         <v>3</v>
       </c>
-      <c r="G37" t="s" s="132">
+      <c r="G38" t="s" s="132">
         <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="133">
-        <v>10116.0</v>
-      </c>
-      <c r="B38" t="s" s="134">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s" s="135">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s" s="137">
-        <v>28</v>
-      </c>
-      <c r="F38" t="n" s="138">
-        <v>2.6159320835543496</v>
-      </c>
-      <c r="G38" t="n" s="139">
-        <v>-0.43947638936464706</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="133">
-        <v>10120.0</v>
+        <v>10116.0</v>
       </c>
       <c r="B39" t="s" s="134">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s" s="135">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s" s="136">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s" s="137">
         <v>29</v>
       </c>
       <c r="F39" t="n" s="138">
-        <v>1.3875250646034103</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="G39" t="n" s="139">
-        <v>1.2745279552051365</v>
+        <v>-0.43947638936464706</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="133">
-        <v>10141.0</v>
+        <v>10120.0</v>
       </c>
       <c r="B40" t="s" s="134">
         <v>21</v>
       </c>
       <c r="C40" t="s" s="135">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s" s="136">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s" s="137">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" t="n" s="138">
-        <v>6.6027005735701705</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="G40" t="n" s="139">
-        <v>-0.19461194636708312</v>
+        <v>1.2745279552051365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="133">
-        <v>10145.0</v>
+        <v>10121.0</v>
       </c>
       <c r="B41" t="s" s="134">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s" s="135">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s" s="136">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s" s="137">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F41" t="n" s="138">
-        <v>1.3875250646034103</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="G41" t="n" s="139">
-        <v>-0.016003757563636895</v>
+        <v>0.13052634609611735</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="133">
-        <v>10152.0</v>
+        <v>10141.0</v>
       </c>
       <c r="B42" t="s" s="134">
         <v>21</v>
       </c>
       <c r="C42" t="s" s="135">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s" s="136">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s" s="137">
         <v>30</v>
       </c>
       <c r="F42" t="n" s="138">
-        <v>-2.595256584071593</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="G42" t="n" s="139">
+        <v>-0.19461194636708312</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="133">
+        <v>10145.0</v>
+      </c>
+      <c r="B43" t="s" s="134">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s" s="135">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s" s="137">
+        <v>29</v>
+      </c>
+      <c r="F43" t="n" s="138">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="G43" t="n" s="139">
+        <v>-0.016003757563636895</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="133">
+        <v>10152.0</v>
+      </c>
+      <c r="B44" t="s" s="134">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s" s="135">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E44" t="s" s="137">
+        <v>31</v>
+      </c>
+      <c r="F44" t="n" s="138">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G44" t="n" s="139">
         <v>1.3837694218399965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1253">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="1281">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="1281">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1277">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="1282">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="C6" t="n" s="1283">
+        <v>-0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1277">
+        <v>65</v>
+      </c>
+      <c r="B7" t="n" s="1282">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="C7" t="n" s="1283">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1287">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="1301">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="1301">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1297">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n" s="1302">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n" s="1303">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1297">
+        <v>65</v>
+      </c>
+      <c r="B13" t="n" s="1302">
+        <v>-0.0</v>
+      </c>
+      <c r="C13" t="n" s="1303">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1307">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="1321">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="1321">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1317">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1322"/>
+      <c r="C18" s="1323"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1317">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1322"/>
+      <c r="C19" s="1323"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1327">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="1341">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="1341">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="1341">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="1341">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1337">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1342"/>
+      <c r="C24" t="n" s="1343">
+        <v>-0.9999999999999998</v>
+      </c>
+      <c r="D24" s="1344"/>
+      <c r="E24" s="1345"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1349">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1363">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="1363">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="1364">
+        <v>1.5815633838428893</v>
+      </c>
+      <c r="B29" t="n" s="1365">
+        <v>-0.5947940389283171</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="1364">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="B30" t="n" s="1365">
+        <v>1.293694677289596</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1369">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1383">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s" s="1383">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s" s="1383">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s" s="1383">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s" s="1383">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s" s="1383">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s" s="1383">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="1384">
+        <v>10116.0</v>
+      </c>
+      <c r="B35" t="s" s="1385">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s" s="1386">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s" s="1387">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s" s="1388">
+        <v>29</v>
+      </c>
+      <c r="F35" t="n" s="1389">
+        <v>1.5815633838428893</v>
+      </c>
+      <c r="G35" t="n" s="1390">
+        <v>-0.5947940389283171</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="1384">
+        <v>10145.0</v>
+      </c>
+      <c r="B36" t="s" s="1385">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s" s="1386">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s" s="1387">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s" s="1388">
+        <v>29</v>
+      </c>
+      <c r="F36" t="n" s="1389">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="G36" t="n" s="1390">
+        <v>1.293694677289596</v>
       </c>
     </row>
   </sheetData>
@@ -5766,7 +7404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="141">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -5952,7 +7590,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="237">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -5965,7 +7603,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="252">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="B29" t="n" s="253">
         <v>-0.43947638936464706</v>
@@ -5973,7 +7611,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="252">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B30" t="n" s="253">
         <v>-0.016003757563636895</v>
@@ -5991,7 +7629,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="257">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -6028,13 +7666,13 @@
         <v>22</v>
       </c>
       <c r="D35" t="s" s="275">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s" s="276">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" t="n" s="277">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="G35" t="n" s="278">
         <v>-0.43947638936464706</v>
@@ -6048,16 +7686,16 @@
         <v>20</v>
       </c>
       <c r="C36" t="s" s="274">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s" s="275">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s" s="276">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" t="n" s="277">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="G36" t="n" s="278">
         <v>-0.016003757563636895</v>
@@ -6088,7 +7726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="280">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -6123,7 +7761,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="310">
-        <v>-1.0</v>
+        <v>-0.9486832980505139</v>
       </c>
     </row>
     <row r="7">
@@ -6131,7 +7769,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="309">
-        <v>-1.0</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="C7" t="n" s="310">
         <v>1.0</v>
@@ -6168,16 +7806,16 @@
       <c r="B12" t="e" s="329">
         <v>#DIV/0!</v>
       </c>
-      <c r="C12" t="e" s="330">
-        <v>#DIV/0!</v>
+      <c r="C12" t="n" s="330">
+        <v>-4.242640687119289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="324">
         <v>4</v>
       </c>
-      <c r="B13" t="e" s="329">
-        <v>#DIV/0!</v>
+      <c r="B13" t="n" s="329">
+        <v>-4.242640687119289</v>
       </c>
       <c r="C13" t="e" s="330">
         <v>#DIV/0!</v>
@@ -6215,7 +7853,7 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="350">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
     </row>
     <row r="19">
@@ -6223,7 +7861,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="349">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
       <c r="C19" t="n" s="350">
         <v>-0.0</v>
@@ -6264,14 +7902,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="369">
-        <v>-1.0</v>
+        <v>-0.9989554781982825</v>
       </c>
       <c r="C24" t="n" s="370">
-        <v>-1.0</v>
-      </c>
-      <c r="D24" s="371"/>
+        <v>-0.9486832980505139</v>
+      </c>
+      <c r="D24" t="n" s="371">
+        <v>0.14058029887361093</v>
+      </c>
       <c r="E24" t="n" s="372">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
     </row>
     <row r="25">
@@ -6286,7 +7926,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="376">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -6299,7 +7939,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="391">
-        <v>1.3875250646034103</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B29" t="n" s="392">
         <v>1.2745279552051365</v>
@@ -6307,23 +7947,26 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="391">
-        <v>6.6027005735701705</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B30" t="n" s="392">
-        <v>-0.19461194636708312</v>
+        <v>0.13052634609611735</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="391">
-        <v>-2.595256584071593</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B31" t="n" s="392">
+        <v>-0.19461194636708312</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="391">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B32" t="n" s="392">
         <v>1.3837694218399965</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -6332,99 +7975,127 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="396">
-        <v>36</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="410">
+      <c r="A35" t="s" s="396">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="410">
         <v>15</v>
       </c>
-      <c r="B35" t="s" s="410">
+      <c r="B36" t="s" s="410">
         <v>16</v>
       </c>
-      <c r="C35" t="s" s="410">
+      <c r="C36" t="s" s="410">
         <v>17</v>
       </c>
-      <c r="D35" t="s" s="410">
+      <c r="D36" t="s" s="410">
         <v>18</v>
       </c>
-      <c r="E35" t="s" s="410">
+      <c r="E36" t="s" s="410">
         <v>19</v>
       </c>
-      <c r="F35" t="s" s="410">
+      <c r="F36" t="s" s="410">
         <v>3</v>
       </c>
-      <c r="G35" t="s" s="410">
+      <c r="G36" t="s" s="410">
         <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="411">
-        <v>10120.0</v>
-      </c>
-      <c r="B36" t="s" s="412">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s" s="413">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s" s="414">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s" s="415">
-        <v>29</v>
-      </c>
-      <c r="F36" t="n" s="416">
-        <v>1.3875250646034103</v>
-      </c>
-      <c r="G36" t="n" s="417">
-        <v>1.2745279552051365</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="411">
-        <v>10141.0</v>
+        <v>10120.0</v>
       </c>
       <c r="B37" t="s" s="412">
         <v>21</v>
       </c>
       <c r="C37" t="s" s="413">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s" s="414">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s" s="415">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" t="n" s="416">
-        <v>6.6027005735701705</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="G37" t="n" s="417">
-        <v>-0.19461194636708312</v>
+        <v>1.2745279552051365</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="411">
-        <v>10152.0</v>
+        <v>10121.0</v>
       </c>
       <c r="B38" t="s" s="412">
         <v>21</v>
       </c>
       <c r="C38" t="s" s="413">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s" s="414">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s" s="415">
+        <v>31</v>
+      </c>
+      <c r="F38" t="n" s="416">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="G38" t="n" s="417">
+        <v>0.13052634609611735</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="411">
+        <v>10141.0</v>
+      </c>
+      <c r="B39" t="s" s="412">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s" s="413">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s" s="414">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s" s="415">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n" s="416">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="G39" t="n" s="417">
+        <v>-0.19461194636708312</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="411">
+        <v>10152.0</v>
+      </c>
+      <c r="B40" t="s" s="412">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s" s="413">
         <v>27</v>
       </c>
-      <c r="E38" t="s" s="415">
-        <v>30</v>
-      </c>
-      <c r="F38" t="n" s="416">
-        <v>-2.595256584071593</v>
-      </c>
-      <c r="G38" t="n" s="417">
+      <c r="D40" t="s" s="414">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s" s="415">
+        <v>31</v>
+      </c>
+      <c r="F40" t="n" s="416">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G40" t="n" s="417">
         <v>1.3837694218399965</v>
       </c>
     </row>
@@ -6453,7 +8124,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="419">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -6477,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="447">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -6493,7 +8164,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="443">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="448">
         <v>0.9999999999999998</v>
@@ -6523,7 +8194,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="467">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -6539,7 +8210,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="463">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="n" s="468">
         <v>0.0</v>
@@ -6569,7 +8240,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="487">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -6581,7 +8252,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="483">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="488"/>
       <c r="C19" s="489"/>
@@ -6618,7 +8289,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="503">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="508"/>
       <c r="C24" t="n" s="509">
@@ -6639,7 +8310,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="515">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
@@ -6647,12 +8318,12 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="529">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="530">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="B29" t="n" s="531">
         <v>-0.11357294579123278</v>
@@ -6660,7 +8331,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="530">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B30" t="n" s="531">
         <v>-0.6310088518604511</v>
@@ -6678,7 +8349,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="535">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -6701,7 +8372,7 @@
         <v>3</v>
       </c>
       <c r="G34" t="s" s="549">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -6715,13 +8386,13 @@
         <v>22</v>
       </c>
       <c r="D35" t="s" s="553">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s" s="554">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" t="n" s="555">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="G35" t="n" s="556">
         <v>-0.11357294579123278</v>
@@ -6735,16 +8406,16 @@
         <v>20</v>
       </c>
       <c r="C36" t="s" s="552">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s" s="553">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s" s="554">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" t="n" s="555">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="G36" t="n" s="556">
         <v>-0.6310088518604511</v>
@@ -6775,7 +8446,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="558">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -6799,7 +8470,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="586">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -6810,15 +8481,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="588">
-        <v>-1.0</v>
+        <v>-0.9486832980505139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="582">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="587">
-        <v>-1.0</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="C7" t="n" s="588">
         <v>1.0</v>
@@ -6845,7 +8516,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="606">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -6855,16 +8526,16 @@
       <c r="B12" t="e" s="607">
         <v>#DIV/0!</v>
       </c>
-      <c r="C12" t="e" s="608">
-        <v>#DIV/0!</v>
+      <c r="C12" t="n" s="608">
+        <v>-4.242640687119289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="602">
-        <v>38</v>
-      </c>
-      <c r="B13" t="e" s="607">
-        <v>#DIV/0!</v>
+        <v>39</v>
+      </c>
+      <c r="B13" t="n" s="607">
+        <v>-4.242640687119289</v>
       </c>
       <c r="C13" t="e" s="608">
         <v>#DIV/0!</v>
@@ -6891,7 +8562,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="626">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -6902,15 +8573,15 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="628">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="622">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n" s="627">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
       <c r="C19" t="n" s="628">
         <v>-0.0</v>
@@ -6948,17 +8619,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="642">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="n" s="647">
-        <v>-1.0</v>
+        <v>-0.9989554781982825</v>
       </c>
       <c r="C24" t="n" s="648">
-        <v>-1.0</v>
-      </c>
-      <c r="D24" s="649"/>
+        <v>-0.9486832980505139</v>
+      </c>
+      <c r="D24" t="n" s="649">
+        <v>0.14058029887361093</v>
+      </c>
       <c r="E24" t="n" s="650">
-        <v>-0.0</v>
+        <v>0.0513167019494861</v>
       </c>
     </row>
     <row r="25">
@@ -6973,7 +8646,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="654">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -6981,12 +8654,12 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="668">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="669">
-        <v>1.3875250646034103</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B29" t="n" s="670">
         <v>1.9055652511372148</v>
@@ -6994,23 +8667,26 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="669">
-        <v>6.6027005735701705</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B30" t="n" s="670">
-        <v>0.0020687155690903847</v>
+        <v>0.3991938673511699</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="669">
-        <v>-2.595256584071593</v>
+        <v>6.276554741394257</v>
       </c>
       <c r="B31" t="n" s="670">
+        <v>0.0020687155690903847</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="669">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B32" t="n" s="670">
         <v>3.1382402906974827</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -7019,99 +8695,127 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="674">
-        <v>44</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="688">
+      <c r="A35" t="s" s="674">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="688">
         <v>15</v>
       </c>
-      <c r="B35" t="s" s="688">
+      <c r="B36" t="s" s="688">
         <v>16</v>
       </c>
-      <c r="C35" t="s" s="688">
+      <c r="C36" t="s" s="688">
         <v>17</v>
       </c>
-      <c r="D35" t="s" s="688">
+      <c r="D36" t="s" s="688">
         <v>18</v>
       </c>
-      <c r="E35" t="s" s="688">
+      <c r="E36" t="s" s="688">
         <v>19</v>
       </c>
-      <c r="F35" t="s" s="688">
+      <c r="F36" t="s" s="688">
         <v>3</v>
       </c>
-      <c r="G35" t="s" s="688">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="689">
-        <v>10120.0</v>
-      </c>
-      <c r="B36" t="s" s="690">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s" s="691">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s" s="692">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s" s="693">
-        <v>29</v>
-      </c>
-      <c r="F36" t="n" s="694">
-        <v>1.3875250646034103</v>
-      </c>
-      <c r="G36" t="n" s="695">
-        <v>1.9055652511372148</v>
+      <c r="G36" t="s" s="688">
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="689">
-        <v>10141.0</v>
+        <v>10120.0</v>
       </c>
       <c r="B37" t="s" s="690">
         <v>21</v>
       </c>
       <c r="C37" t="s" s="691">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s" s="692">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s" s="693">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" t="n" s="694">
-        <v>6.6027005735701705</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="G37" t="n" s="695">
-        <v>0.0020687155690903847</v>
+        <v>1.9055652511372148</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="689">
-        <v>10152.0</v>
+        <v>10121.0</v>
       </c>
       <c r="B38" t="s" s="690">
         <v>21</v>
       </c>
       <c r="C38" t="s" s="691">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s" s="692">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s" s="693">
+        <v>31</v>
+      </c>
+      <c r="F38" t="n" s="694">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="G38" t="n" s="695">
+        <v>0.3991938673511699</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="689">
+        <v>10141.0</v>
+      </c>
+      <c r="B39" t="s" s="690">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s" s="691">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s" s="692">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s" s="693">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n" s="694">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="G39" t="n" s="695">
+        <v>0.0020687155690903847</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="689">
+        <v>10152.0</v>
+      </c>
+      <c r="B40" t="s" s="690">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s" s="691">
         <v>27</v>
       </c>
-      <c r="E38" t="s" s="693">
-        <v>30</v>
-      </c>
-      <c r="F38" t="n" s="694">
-        <v>-2.595256584071593</v>
-      </c>
-      <c r="G38" t="n" s="695">
+      <c r="D40" t="s" s="692">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s" s="693">
+        <v>31</v>
+      </c>
+      <c r="F40" t="n" s="694">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G40" t="n" s="695">
         <v>3.1382402906974827</v>
       </c>
     </row>
@@ -7140,7 +8844,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="697">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -7164,7 +8868,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="725">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -7172,18 +8876,18 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="726">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="727">
-        <v>-0.8207826816681233</v>
+        <v>-0.7105263157894738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="721">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="n" s="726">
-        <v>-0.8207826816681233</v>
+        <v>-0.7105263157894738</v>
       </c>
       <c r="C7" t="n" s="727">
         <v>1.0</v>
@@ -7210,26 +8914,26 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="745">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="746">
-        <v>8.21912370089156E7</v>
+      <c r="B12" t="e" s="746">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>-2.48868406735302</v>
+        <v>-1.748925744204499</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>-2.48868406735302</v>
+        <v>-1.748925744204499</v>
       </c>
       <c r="C13" t="e" s="747">
         <v>#DIV/0!</v>
@@ -7256,7 +8960,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="765">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -7264,18 +8968,18 @@
         <v>3</v>
       </c>
       <c r="B18" t="n" s="766">
-        <v>3.971862410081728E-24</v>
+        <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="767">
-        <v>0.08858700531354392</v>
+        <v>0.17861891923981463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="761">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="n" s="766">
-        <v>0.08858700531354392</v>
+        <v>0.17861891923981463</v>
       </c>
       <c r="C19" t="n" s="767">
         <v>-0.0</v>
@@ -7313,19 +9017,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="781">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n" s="786">
-        <v>-0.987762139220087</v>
+        <v>-0.979051369863431</v>
       </c>
       <c r="C24" t="n" s="787">
-        <v>-0.8207826816681233</v>
+        <v>-0.7105263157894738</v>
       </c>
       <c r="D24" t="n" s="788">
-        <v>0.2228875178375117</v>
+        <v>0.4602731671838977</v>
       </c>
       <c r="E24" t="n" s="789">
-        <v>0.08858700531354392</v>
+        <v>0.17861891923981463</v>
       </c>
     </row>
     <row r="25">
@@ -7340,7 +9044,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="793">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -7348,12 +9052,12 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="807">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="808">
-        <v>-0.8141377199519093</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="B29" t="n" s="809">
         <v>1.1695914200613888</v>
@@ -7361,7 +9065,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="808">
-        <v>7.321874553929193</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B30" t="n" s="809">
         <v>-0.6224334385907416</v>
@@ -7369,7 +9073,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="808">
-        <v>3.663979512143924</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="B31" t="n" s="809">
         <v>-0.3049889462509944</v>
@@ -7377,7 +9081,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="808">
-        <v>-0.46974270057223944</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="B32" t="n" s="809">
         <v>0.34922612395871094</v>
@@ -7385,7 +9089,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="808">
-        <v>6.779366035646001</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="B33" t="n" s="809">
         <v>0.34922612395871094</v>
@@ -7403,7 +9107,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="813">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
@@ -7426,7 +9130,7 @@
         <v>3</v>
       </c>
       <c r="G37" t="s" s="827">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
@@ -7437,16 +9141,16 @@
         <v>20</v>
       </c>
       <c r="C38" t="s" s="830">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s" s="831">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s" s="832">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" t="n" s="833">
-        <v>-0.8141377199519093</v>
+        <v>2.788571132302357</v>
       </c>
       <c r="G38" t="n" s="834">
         <v>1.1695914200613888</v>
@@ -7460,16 +9164,16 @@
         <v>20</v>
       </c>
       <c r="C39" t="s" s="830">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s" s="831">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s" s="832">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F39" t="n" s="833">
-        <v>7.321874553929193</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="G39" t="n" s="834">
         <v>-0.6224334385907416</v>
@@ -7486,13 +9190,13 @@
         <v>22</v>
       </c>
       <c r="D40" t="s" s="831">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s" s="832">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" t="n" s="833">
-        <v>3.663979512143924</v>
+        <v>3.209630728612353</v>
       </c>
       <c r="G40" t="n" s="834">
         <v>-0.3049889462509944</v>
@@ -7506,16 +9210,16 @@
         <v>20</v>
       </c>
       <c r="C41" t="s" s="830">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s" s="831">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s" s="832">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F41" t="n" s="833">
-        <v>-0.46974270057223944</v>
+        <v>2.833049853597383</v>
       </c>
       <c r="G41" t="n" s="834">
         <v>0.34922612395871094</v>
@@ -7529,16 +9233,16 @@
         <v>20</v>
       </c>
       <c r="C42" t="s" s="830">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s" s="831">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s" s="832">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" t="n" s="833">
-        <v>6.779366035646001</v>
+        <v>4.458156643590752</v>
       </c>
       <c r="G42" t="n" s="834">
         <v>0.34922612395871094</v>
@@ -7569,7 +9273,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="836">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -7593,7 +9297,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="864">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -7601,21 +9305,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="865">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="866">
-        <v>-0.9999999999999998</v>
+        <v>-0.9486832980505139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="860">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B7" t="n" s="865">
-        <v>-0.9999999999999998</v>
+        <v>-0.9486832980505139</v>
       </c>
       <c r="C7" t="n" s="866">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -7639,29 +9343,29 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="884">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="880">
         <v>3</v>
       </c>
-      <c r="B12" t="n" s="885">
-        <v>0.0</v>
+      <c r="B12" t="e" s="885">
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="886">
-        <v>-0.0</v>
+        <v>-4.242640687119289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="880">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="885">
-        <v>-0.0</v>
-      </c>
-      <c r="C13" t="n" s="886">
-        <v>0.0</v>
+        <v>-4.242640687119289</v>
+      </c>
+      <c r="C13" t="e" s="886">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -7685,22 +9389,30 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="904">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="900">
         <v>3</v>
       </c>
-      <c r="B18" s="905"/>
-      <c r="C18" s="906"/>
+      <c r="B18" t="n" s="905">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="906">
+        <v>0.0513167019494861</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="900">
-        <v>53</v>
-      </c>
-      <c r="B19" s="905"/>
-      <c r="C19" s="906"/>
+        <v>47</v>
+      </c>
+      <c r="B19" t="n" s="905">
+        <v>0.0513167019494861</v>
+      </c>
+      <c r="C19" t="n" s="906">
+        <v>-0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -7734,14 +9446,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="920">
-        <v>54</v>
-      </c>
-      <c r="B24" s="925"/>
+        <v>48</v>
+      </c>
+      <c r="B24" t="n" s="925">
+        <v>-0.9989554781982825</v>
+      </c>
       <c r="C24" t="n" s="926">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="D24" s="927"/>
-      <c r="E24" s="928"/>
+        <v>-0.9486832980505139</v>
+      </c>
+      <c r="D24" t="n" s="927">
+        <v>0.14058029887361093</v>
+      </c>
+      <c r="E24" t="n" s="928">
+        <v>0.0513167019494861</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -7755,7 +9473,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="932">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -7763,107 +9481,169 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="946">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="947">
-        <v>2.6159320835543496</v>
+        <v>-1.1173692314060855</v>
       </c>
       <c r="B29" t="n" s="948">
-        <v>0.2070747279978936</v>
+        <v>1.3724895791459666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="947">
-        <v>1.3875250646034103</v>
+        <v>0.7473346858743399</v>
       </c>
       <c r="B30" t="n" s="948">
-        <v>0.49281785313896265</v>
+        <v>0.5868961120264211</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>1</v>
+      <c r="A31" t="n" s="947">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="B31" t="n" s="948">
+        <v>-0.41039697568847644</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>1</v>
+      <c r="A32" t="n" s="947">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B32" t="n" s="948">
+        <v>0.7141732488095422</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="952">
-        <v>56</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="966">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="952">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="966">
         <v>15</v>
       </c>
-      <c r="B34" t="s" s="966">
+      <c r="B36" t="s" s="966">
         <v>16</v>
       </c>
-      <c r="C34" t="s" s="966">
+      <c r="C36" t="s" s="966">
         <v>17</v>
       </c>
-      <c r="D34" t="s" s="966">
+      <c r="D36" t="s" s="966">
         <v>18</v>
       </c>
-      <c r="E34" t="s" s="966">
+      <c r="E36" t="s" s="966">
         <v>19</v>
       </c>
-      <c r="F34" t="s" s="966">
+      <c r="F36" t="s" s="966">
         <v>3</v>
       </c>
-      <c r="G34" t="s" s="966">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n" s="967">
-        <v>10116.0</v>
-      </c>
-      <c r="B35" t="s" s="968">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s" s="969">
-        <v>22</v>
-      </c>
-      <c r="D35" t="s" s="970">
+      <c r="G36" t="s" s="966">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="967">
+        <v>10120.0</v>
+      </c>
+      <c r="B37" t="s" s="968">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s" s="969">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s" s="970">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s" s="971">
+        <v>30</v>
+      </c>
+      <c r="F37" t="n" s="972">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G37" t="n" s="973">
+        <v>1.3724895791459666</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="967">
+        <v>10121.0</v>
+      </c>
+      <c r="B38" t="s" s="968">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s" s="969">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s" s="970">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s" s="971">
+        <v>31</v>
+      </c>
+      <c r="F38" t="n" s="972">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="G38" t="n" s="973">
+        <v>0.5868961120264211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="967">
+        <v>10141.0</v>
+      </c>
+      <c r="B39" t="s" s="968">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s" s="969">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s" s="970">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s" s="971">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n" s="972">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="G39" t="n" s="973">
+        <v>-0.41039697568847644</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="967">
+        <v>10152.0</v>
+      </c>
+      <c r="B40" t="s" s="968">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s" s="969">
         <v>27</v>
       </c>
-      <c r="E35" t="s" s="971">
+      <c r="D40" t="s" s="970">
         <v>28</v>
       </c>
-      <c r="F35" t="n" s="972">
-        <v>2.6159320835543496</v>
-      </c>
-      <c r="G35" t="n" s="973">
-        <v>0.2070747279978936</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="967">
-        <v>10145.0</v>
-      </c>
-      <c r="B36" t="s" s="968">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s" s="969">
-        <v>25</v>
-      </c>
-      <c r="D36" t="s" s="970">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s" s="971">
-        <v>28</v>
-      </c>
-      <c r="F36" t="n" s="972">
-        <v>1.3875250646034103</v>
-      </c>
-      <c r="G36" t="n" s="973">
-        <v>0.49281785313896265</v>
+      <c r="E40" t="s" s="971">
+        <v>31</v>
+      </c>
+      <c r="F40" t="n" s="972">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G40" t="n" s="973">
+        <v>0.7141732488095422</v>
       </c>
     </row>
   </sheetData>
@@ -7891,7 +9671,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="975">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -7915,7 +9695,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="1003">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -7931,7 +9711,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="999">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="n" s="1004">
         <v>-0.9999999999999998</v>
@@ -7961,7 +9741,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="1023">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -7977,7 +9757,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="1019">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="n" s="1024">
         <v>-0.0</v>
@@ -8007,7 +9787,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="1043">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -8019,7 +9799,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="1039">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1044"/>
       <c r="C19" s="1045"/>
@@ -8056,7 +9836,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="1059">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1064"/>
       <c r="C24" t="n" s="1065">
@@ -8077,7 +9857,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="1071">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -8085,23 +9865,23 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="1085">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="1086">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="B29" t="n" s="1087">
-        <v>-0.5947940389283171</v>
+        <v>0.2070747279978936</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="1086">
-        <v>1.3875250646034103</v>
+        <v>0.06590707889847325</v>
       </c>
       <c r="B30" t="n" s="1087">
-        <v>1.293694677289596</v>
+        <v>0.49281785313896265</v>
       </c>
     </row>
     <row r="31">
@@ -8116,7 +9896,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="1091">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -8139,7 +9919,7 @@
         <v>3</v>
       </c>
       <c r="G34" t="s" s="1105">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -8153,16 +9933,16 @@
         <v>22</v>
       </c>
       <c r="D35" t="s" s="1109">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s" s="1110">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" t="n" s="1111">
-        <v>2.6159320835543496</v>
+        <v>1.5815633838428893</v>
       </c>
       <c r="G35" t="n" s="1112">
-        <v>-0.5947940389283171</v>
+        <v>0.2070747279978936</v>
       </c>
     </row>
     <row r="36">
@@ -8173,19 +9953,417 @@
         <v>20</v>
       </c>
       <c r="C36" t="s" s="1108">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s" s="1109">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s" s="1110">
+        <v>29</v>
+      </c>
+      <c r="F36" t="n" s="1111">
+        <v>0.06590707889847325</v>
+      </c>
+      <c r="G36" t="n" s="1112">
+        <v>0.49281785313896265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1114">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="1142">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="1142">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1138">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="1143">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="1144">
+        <v>0.737864787372622</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1138">
+        <v>57</v>
+      </c>
+      <c r="B7" t="n" s="1143">
+        <v>0.737864787372622</v>
+      </c>
+      <c r="C7" t="n" s="1144">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="1162">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="1162">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1158">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="1163">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="1164">
+        <v>1.5460413650478524</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1158">
+        <v>57</v>
+      </c>
+      <c r="B13" t="n" s="1163">
+        <v>1.5460413650478524</v>
+      </c>
+      <c r="C13" t="e" s="1164">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="1182">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="1182">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1178">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="1183">
+        <v>-0.0</v>
+      </c>
+      <c r="C18" t="n" s="1184">
+        <v>0.262135212627378</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1178">
+        <v>57</v>
+      </c>
+      <c r="B19" t="n" s="1183">
+        <v>0.262135212627378</v>
+      </c>
+      <c r="C19" t="n" s="1184">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="1202">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="1202">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="1202">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="1202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1198">
+        <v>58</v>
+      </c>
+      <c r="B24" t="n" s="1203">
+        <v>-0.7674886455346195</v>
+      </c>
+      <c r="C24" t="n" s="1204">
+        <v>0.737864787372622</v>
+      </c>
+      <c r="D24" t="n" s="1205">
+        <v>0.9940318684341379</v>
+      </c>
+      <c r="E24" t="n" s="1206">
+        <v>0.262135212627378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1210">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1224">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="1224">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="1225">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B29" t="n" s="1226">
+        <v>-0.9288875181075325</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="1225">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="B30" t="n" s="1226">
+        <v>0.3454562466271757</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="1225">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="B31" t="n" s="1226">
+        <v>-0.05982173039386193</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="1225">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="B32" t="n" s="1226">
+        <v>-0.1950989718859835</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1230">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1244">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s" s="1244">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s" s="1244">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s" s="1244">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s" s="1244">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s" s="1244">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s" s="1244">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="1245">
+        <v>10120.0</v>
+      </c>
+      <c r="B37" t="s" s="1246">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s" s="1247">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s" s="1248">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s" s="1249">
+        <v>30</v>
+      </c>
+      <c r="F37" t="n" s="1250">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G37" t="n" s="1251">
+        <v>-0.9288875181075325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="1245">
+        <v>10121.0</v>
+      </c>
+      <c r="B38" t="s" s="1246">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s" s="1247">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s" s="1248">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s" s="1249">
+        <v>31</v>
+      </c>
+      <c r="F38" t="n" s="1250">
+        <v>0.7473346858743399</v>
+      </c>
+      <c r="G38" t="n" s="1251">
+        <v>0.3454562466271757</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="1245">
+        <v>10141.0</v>
+      </c>
+      <c r="B39" t="s" s="1246">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s" s="1247">
         <v>25</v>
       </c>
-      <c r="D36" t="s" s="1109">
+      <c r="D39" t="s" s="1248">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s" s="1249">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n" s="1250">
+        <v>6.276554741394257</v>
+      </c>
+      <c r="G39" t="n" s="1251">
+        <v>-0.05982173039386193</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="1245">
+        <v>10152.0</v>
+      </c>
+      <c r="B40" t="s" s="1246">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s" s="1247">
         <v>27</v>
       </c>
-      <c r="E36" t="s" s="1110">
+      <c r="D40" t="s" s="1248">
         <v>28</v>
       </c>
-      <c r="F36" t="n" s="1111">
-        <v>1.3875250646034103</v>
-      </c>
-      <c r="G36" t="n" s="1112">
-        <v>1.293694677289596</v>
+      <c r="E40" t="s" s="1249">
+        <v>31</v>
+      </c>
+      <c r="F40" t="n" s="1250">
+        <v>-1.1173692314060855</v>
+      </c>
+      <c r="G40" t="n" s="1251">
+        <v>-0.1950989718859835</v>
       </c>
     </row>
   </sheetData>
